--- a/NashDuino v1.0 Bill of Materials.xlsx
+++ b/NashDuino v1.0 Bill of Materials.xlsx
@@ -16,6 +16,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="F21" authorId="0">
+      <text>
+        <t xml:space="preserve">SoftDust lib
+	-Ian Lee, Sr.</t>
+      </text>
+    </comment>
     <comment ref="F8" authorId="0">
       <text>
         <t xml:space="preserve">Sparkfun - Capacitors lib
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>DigiKey Part #</t>
   </si>
@@ -255,6 +261,15 @@
   </si>
   <si>
     <t>PINHD-1X15</t>
+  </si>
+  <si>
+    <t>Gadgeteer Socket</t>
+  </si>
+  <si>
+    <t>GADGETEER-SOCKET</t>
+  </si>
+  <si>
+    <t>Get from Justin.</t>
   </si>
   <si>
     <t>Shipping Costs</t>
@@ -1103,51 +1118,65 @@
         <v>1</v>
       </c>
       <c s="14" r="D21">
+        <v>0.3</v>
+      </c>
+      <c s="14" r="E21">
+        <v>0.3</v>
+      </c>
+      <c t="s" r="F21">
+        <v>69</v>
+      </c>
+      <c t="s" s="13" r="G21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c t="s" r="B22">
+        <v>71</v>
+      </c>
+      <c s="7" r="C22">
+        <v>1</v>
+      </c>
+      <c s="14" r="D22">
         <v>20</v>
       </c>
-      <c s="14" r="E21">
-        <f>D21/25</f>
+      <c s="14" r="E22">
+        <f>D22/25</f>
         <v>0.8</v>
       </c>
-      <c s="13" r="G21"/>
-    </row>
-    <row r="22">
-      <c s="7" r="C22"/>
-      <c s="14" r="D22"/>
-      <c s="14" r="E22"/>
       <c s="13" r="G22"/>
     </row>
     <row r="23">
-      <c t="s" s="10" r="B23">
-        <v>69</v>
-      </c>
-      <c s="19" r="C23">
-        <f>SUM(C3:C22)</f>
-        <v>63</v>
-      </c>
-      <c s="12" r="D23"/>
-      <c s="12" r="E23">
-        <f>SUM(E3:E22)</f>
-        <v>14.54147</v>
-      </c>
+      <c s="7" r="C23"/>
+      <c s="14" r="D23"/>
+      <c s="14" r="E23"/>
       <c s="13" r="G23"/>
     </row>
     <row r="24">
-      <c t="s" r="B24">
-        <v>70</v>
-      </c>
-      <c s="7" r="C24"/>
-      <c s="14" r="D24"/>
-      <c s="14" r="E24">
-        <f>E23*25</f>
-        <v>363.53675</v>
+      <c t="s" s="10" r="B24">
+        <v>72</v>
+      </c>
+      <c s="19" r="C24">
+        <f>SUM(C3:C23)</f>
+        <v>64</v>
+      </c>
+      <c s="12" r="D24"/>
+      <c s="12" r="E24">
+        <f>SUM(E3:E23)</f>
+        <v>14.84147</v>
       </c>
       <c s="13" r="G24"/>
     </row>
     <row r="25">
+      <c t="s" r="B25">
+        <v>73</v>
+      </c>
       <c s="7" r="C25"/>
       <c s="14" r="D25"/>
-      <c s="14" r="E25"/>
+      <c s="14" r="E25">
+        <f>E24*25</f>
+        <v>371.03675</v>
+      </c>
       <c s="13" r="G25"/>
     </row>
     <row r="26">
@@ -1612,6 +1641,12 @@
       <c s="14" r="E102"/>
       <c s="13" r="G102"/>
     </row>
+    <row r="103">
+      <c s="7" r="C103"/>
+      <c s="14" r="D103"/>
+      <c s="14" r="E103"/>
+      <c s="13" r="G103"/>
+    </row>
   </sheetData>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
